--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79870C16-91D0-CD4D-A8E3-ED92D0816F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82450AC7-DF08-E541-9C93-956D65124E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20920" yWindow="2920" windowWidth="28040" windowHeight="17440" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,37 +646,37 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -685,21 +685,18 @@
         <v>2</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="V2">
+      <c r="U2">
         <v>1</v>
       </c>
     </row>
@@ -709,24 +706,30 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
     </row>
@@ -738,10 +741,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>1</v>
       </c>
     </row>
@@ -760,18 +763,27 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
     </row>
@@ -781,27 +793,18 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
     </row>
@@ -811,9 +814,6 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L8">
         <v>1</v>
       </c>
       <c r="P8">
@@ -826,22 +826,10 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -850,15 +838,9 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>1</v>
       </c>
     </row>
@@ -868,15 +850,18 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>1</v>
       </c>
     </row>
@@ -904,12 +889,9 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
@@ -928,10 +910,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -940,7 +919,16 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -958,18 +946,12 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
+      <c r="K19">
         <v>1</v>
       </c>
     </row>
@@ -1015,34 +997,52 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
         <v>2</v>
       </c>
       <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24">
         <v>3</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -1053,7 +1053,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="J25">
         <v>1</v>
       </c>
     </row>
@@ -1063,15 +1063,27 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="T26">
         <v>1</v>
       </c>
     </row>
@@ -1081,27 +1093,15 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="S27">
         <v>1</v>
       </c>
     </row>
@@ -1111,9 +1111,18 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="M28">
         <v>1</v>
       </c>
     </row>
@@ -1132,10 +1141,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -1153,124 +1159,103 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>6</v>
-      </c>
-      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="G32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>6</v>
-      </c>
-      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
         <v>1</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>2</v>
       </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
       <c r="T32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>3</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33">
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
         <v>3</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>2</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
       <c r="S33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>2</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1279,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1287,65 +1272,77 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
         <v>1</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82450AC7-DF08-E541-9C93-956D65124E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D30047-95A2-1F41-B143-0637A211A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20920" yWindow="2920" windowWidth="28040" windowHeight="17440" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="19620" yWindow="5580" windowWidth="28040" windowHeight="17440" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,57 +646,57 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
       <c r="N2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -708,28 +708,28 @@
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
         <v>11</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
         <v>1</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
     </row>
@@ -739,9 +739,6 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D4">
         <v>1</v>
       </c>
       <c r="V4">
@@ -754,7 +751,19 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -763,27 +772,27 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
         <v>1</v>
       </c>
     </row>
@@ -793,18 +802,33 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
@@ -816,7 +840,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P8">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
@@ -828,8 +852,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J9">
-        <v>2</v>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -838,9 +865,21 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>1</v>
       </c>
     </row>
@@ -850,18 +889,27 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>1</v>
       </c>
     </row>
@@ -871,7 +919,10 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -889,9 +940,12 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>1</v>
       </c>
     </row>
@@ -901,7 +955,13 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -913,25 +973,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -940,22 +994,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -964,16 +1015,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -982,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -991,39 +1045,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
       <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
@@ -1041,92 +1077,83 @@
       <c r="T24">
         <v>1</v>
       </c>
-      <c r="V24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1135,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1144,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1153,109 +1180,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>3</v>
-      </c>
-      <c r="S33">
         <v>1</v>
       </c>
       <c r="T33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1264,85 +1303,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>3</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36">
         <v>2</v>
       </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D30047-95A2-1F41-B143-0637A211A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFED35-41E9-2143-97C7-2546C716DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19620" yWindow="5580" windowWidth="28040" windowHeight="17440" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="21720" yWindow="5980" windowWidth="28040" windowHeight="17440" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,58 +646,49 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>3</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
         <v>3</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -706,30 +697,18 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
     </row>
@@ -739,10 +718,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -751,18 +727,9 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
     </row>
@@ -772,27 +739,21 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="P6">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
     </row>
@@ -802,33 +763,15 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="R7">
         <v>1</v>
       </c>
     </row>
@@ -838,10 +781,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -852,10 +792,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
     </row>
@@ -865,21 +805,12 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
         <v>1</v>
       </c>
     </row>
@@ -889,27 +820,15 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="T11">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="R11">
         <v>1</v>
       </c>
     </row>
@@ -919,10 +838,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -940,13 +856,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -955,13 +865,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -970,7 +874,13 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -979,10 +889,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -991,7 +898,10 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -1000,10 +910,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -1021,10 +928,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -1051,27 +955,21 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="R24">
+      <c r="S24">
         <v>1</v>
       </c>
       <c r="T24">
@@ -1093,31 +991,16 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
         <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -1126,21 +1009,18 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="S27">
+      <c r="K27">
         <v>1</v>
       </c>
     </row>
@@ -1150,7 +1030,16 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -1186,54 +1075,24 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32">
-        <v>7</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
       <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32">
         <v>2</v>
       </c>
       <c r="S32">
@@ -1246,52 +1105,43 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>3</v>
       </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
       <c r="K33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>4</v>
       </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
       <c r="N33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -1309,27 +1159,12 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="T35">
         <v>1</v>
       </c>
     </row>
@@ -1339,33 +1174,21 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="I36">
+      <c r="H36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>2</v>
-      </c>
-      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="S36">
         <v>1</v>
       </c>
     </row>
@@ -1375,16 +1198,13 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>262</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFED35-41E9-2143-97C7-2546C716DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3906B42-2FE4-E349-B2E7-C0183AC4595F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21720" yWindow="5980" windowWidth="28040" windowHeight="17440" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="22500" yWindow="5960" windowWidth="28040" windowHeight="17440" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -655,28 +655,34 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -684,11 +690,11 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>1</v>
+      <c r="R2">
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -697,19 +703,34 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
       <c r="M3">
         <v>1</v>
       </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
       <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -718,7 +739,13 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -727,9 +754,18 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
     </row>
@@ -739,21 +775,36 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
         <v>1</v>
       </c>
     </row>
@@ -763,15 +814,48 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="T7">
         <v>1</v>
       </c>
     </row>
@@ -781,7 +865,13 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -790,12 +880,9 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
     </row>
@@ -805,12 +892,15 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
     </row>
@@ -820,15 +910,21 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
     </row>
@@ -847,7 +943,10 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -856,7 +955,13 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -874,55 +979,58 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -931,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -940,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -949,34 +1057,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -985,64 +1090,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1051,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1060,151 +1159,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="F32">
         <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
         <v>1</v>
       </c>
       <c r="P32">
         <v>2</v>
       </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>4</v>
-      </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>2</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>115</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3906B42-2FE4-E349-B2E7-C0183AC4595F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC6CB22-E3BA-2641-B136-08F054DB1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="5960" windowWidth="28040" windowHeight="17440" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="23420" yWindow="2380" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,54 +646,42 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -703,33 +691,30 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
+      <c r="R3">
         <v>2</v>
       </c>
     </row>
@@ -739,13 +724,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -754,18 +733,15 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="U5">
         <v>1</v>
       </c>
     </row>
@@ -775,36 +751,15 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
         <v>1</v>
       </c>
     </row>
@@ -814,48 +769,18 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="T7">
         <v>1</v>
       </c>
     </row>
@@ -865,12 +790,24 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
     </row>
@@ -880,9 +817,15 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>1</v>
       </c>
     </row>
@@ -894,13 +837,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="T10">
         <v>1</v>
       </c>
     </row>
@@ -910,21 +856,9 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <v>1</v>
       </c>
     </row>
@@ -934,7 +868,13 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -943,9 +883,18 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>1</v>
       </c>
     </row>
@@ -955,12 +904,15 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>1</v>
       </c>
     </row>
@@ -970,7 +922,13 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -979,25 +937,40 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="O16">
         <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1006,19 +979,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1026,11 +996,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1039,16 +1009,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1057,31 +1030,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
       </c>
       <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1090,67 +1075,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1159,79 +1153,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
       <c r="P32">
         <v>2</v>
       </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
       <c r="R32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1239,35 +1272,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="M35">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>1</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1275,35 +1305,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC6CB22-E3BA-2641-B136-08F054DB1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F21E1B-0DE5-2A4B-8F25-BC33A715289F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23420" yWindow="2380" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="22100" yWindow="2920" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,42 +646,48 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="K2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
     </row>
@@ -691,31 +697,40 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -724,7 +739,10 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -736,13 +754,13 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -751,12 +769,39 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>2</v>
       </c>
       <c r="Q6">
@@ -769,18 +814,27 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
       </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
     </row>
@@ -790,14 +844,20 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
       <c r="L8">
         <v>1</v>
       </c>
@@ -805,9 +865,12 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <v>1</v>
       </c>
     </row>
@@ -817,15 +880,24 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="T9">
         <v>1</v>
       </c>
     </row>
@@ -835,18 +907,9 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
@@ -856,9 +919,24 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>1</v>
       </c>
     </row>
@@ -870,10 +948,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
         <v>1</v>
       </c>
     </row>
@@ -883,18 +961,24 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
         <v>1</v>
       </c>
     </row>
@@ -909,10 +993,10 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>1</v>
       </c>
     </row>
@@ -922,13 +1006,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -937,27 +1015,30 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="S16">
         <v>1</v>
       </c>
     </row>
@@ -967,7 +1048,10 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -994,9 +1078,12 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <v>1</v>
       </c>
     </row>
@@ -1036,34 +1123,46 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
       <c r="H24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
       <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
-      <c r="P24">
-        <v>2</v>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -1072,7 +1171,13 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -1081,15 +1186,27 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
         <v>1</v>
       </c>
     </row>
@@ -1099,21 +1216,18 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1</v>
       </c>
     </row>
@@ -1123,13 +1237,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -1138,9 +1246,12 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
     </row>
@@ -1159,7 +1270,13 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -1168,49 +1285,46 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
         <v>3</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>2</v>
-      </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -1219,19 +1333,22 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1240,27 +1357,18 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
         <v>2</v>
       </c>
       <c r="L33">
-        <v>4</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="N33">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>2</v>
-      </c>
-      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="U33">
         <v>1</v>
       </c>
     </row>
@@ -1272,7 +1380,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>1</v>
       </c>
     </row>
@@ -1284,16 +1392,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
         <v>1</v>
       </c>
       <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>1</v>
       </c>
     </row>
@@ -1305,7 +1413,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U36">
+      <c r="I36">
         <v>1</v>
       </c>
     </row>
@@ -1315,13 +1423,19 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F21E1B-0DE5-2A4B-8F25-BC33A715289F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637A9500-0114-534A-B8BF-50F5712404FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22100" yWindow="2920" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="22440" yWindow="2540" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,48 +646,39 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="P2">
+      <c r="O2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="S2">
         <v>1</v>
       </c>
     </row>
@@ -697,39 +688,18 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="V3">
         <v>1</v>
       </c>
     </row>
@@ -739,10 +709,10 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -751,16 +721,13 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -769,42 +736,18 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
         <v>1</v>
       </c>
     </row>
@@ -814,27 +757,12 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="P7">
         <v>1</v>
       </c>
     </row>
@@ -844,33 +772,24 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="K8">
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
         <v>1</v>
       </c>
     </row>
@@ -880,24 +799,9 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="V9">
         <v>1</v>
       </c>
     </row>
@@ -909,7 +813,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
@@ -919,24 +823,18 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>1</v>
       </c>
     </row>
@@ -946,12 +844,9 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
@@ -961,25 +856,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -988,16 +865,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1006,7 +874,10 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -1015,21 +886,27 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="J16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
@@ -1040,6 +917,9 @@
       </c>
       <c r="S16">
         <v>1</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -1048,10 +928,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -1060,7 +937,10 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -1078,13 +958,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -1102,10 +976,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -1123,46 +994,22 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
         <v>1</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -1171,13 +1018,16 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -1186,27 +1036,12 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
         <v>1</v>
       </c>
     </row>
@@ -1216,19 +1051,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -1237,7 +1060,10 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -1246,12 +1072,9 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
     </row>
@@ -1270,12 +1093,9 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>1</v>
       </c>
     </row>
@@ -1285,127 +1105,115 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
       <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
       <c r="R32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
       <c r="L33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
       <c r="N35">
         <v>1</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1413,29 +1221,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>232</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637A9500-0114-534A-B8BF-50F5712404FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAC8E6-F459-0647-8757-B101B4C3A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="2540" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="23080" yWindow="2500" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,40 +646,61 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
+      <c r="P2">
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -688,7 +709,10 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -696,10 +720,25 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
         <v>1</v>
       </c>
     </row>
@@ -709,10 +748,22 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -721,12 +772,21 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
     </row>
@@ -736,18 +796,36 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>1</v>
       </c>
     </row>
@@ -757,12 +835,30 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
@@ -772,7 +868,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -784,12 +880,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
         <v>1</v>
       </c>
     </row>
@@ -799,9 +901,18 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
     </row>
@@ -811,9 +922,15 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
     </row>
@@ -823,18 +940,15 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
     </row>
@@ -846,7 +960,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>1</v>
       </c>
     </row>
@@ -876,7 +990,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>1</v>
       </c>
     </row>
@@ -888,37 +1002,34 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="U16">
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="T16">
         <v>2</v>
       </c>
     </row>
@@ -937,10 +1048,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -958,7 +1066,10 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -985,7 +1096,10 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -996,8 +1110,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E24">
-        <v>2</v>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1005,11 +1122,11 @@
       <c r="L24">
         <v>2</v>
       </c>
-      <c r="N24">
+      <c r="M24">
         <v>1</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -1018,15 +1135,9 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>1</v>
       </c>
     </row>
@@ -1036,12 +1147,18 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="T26">
         <v>1</v>
       </c>
     </row>
@@ -1051,7 +1168,13 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -1062,7 +1185,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>1</v>
       </c>
     </row>
@@ -1072,9 +1195,21 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
     </row>
@@ -1084,7 +1219,10 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -1095,7 +1233,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="J31">
         <v>1</v>
       </c>
     </row>
@@ -1105,76 +1243,70 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32">
         <v>1</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1182,50 +1314,32 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1233,14 +1347,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>130</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAC8E6-F459-0647-8757-B101B4C3A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421903F6-888C-9F46-8C01-565B04EEC870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23080" yWindow="2500" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="23080" yWindow="3380" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,60 +646,45 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
       <c r="H2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>3</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
         <v>2</v>
       </c>
     </row>
@@ -709,36 +694,27 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
         <v>1</v>
       </c>
     </row>
@@ -748,21 +724,21 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
         <v>1</v>
       </c>
     </row>
@@ -772,21 +748,18 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>1</v>
       </c>
     </row>
@@ -796,36 +769,24 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
+      <c r="P6">
         <v>1</v>
       </c>
     </row>
@@ -835,30 +796,39 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
     </row>
@@ -868,30 +838,18 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
     </row>
@@ -901,18 +859,27 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1</v>
       </c>
     </row>
@@ -922,15 +889,12 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
@@ -940,15 +904,9 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
     </row>
@@ -958,9 +916,15 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>1</v>
       </c>
     </row>
@@ -970,7 +934,13 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -979,7 +949,13 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -988,9 +964,12 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
     </row>
@@ -1000,37 +979,46 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
         <v>2</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -1039,7 +1027,13 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -1057,7 +1051,16 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -1068,7 +1071,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P20">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -1078,7 +1081,10 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -1087,7 +1093,10 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -1098,7 +1107,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
@@ -1108,24 +1117,24 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>1</v>
       </c>
     </row>
@@ -1135,9 +1144,18 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
     </row>
@@ -1147,18 +1165,12 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="T26">
         <v>1</v>
       </c>
     </row>
@@ -1168,13 +1180,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -1183,10 +1189,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -1195,22 +1198,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -1219,6 +1207,9 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
       <c r="K30">
@@ -1233,7 +1224,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>1</v>
       </c>
     </row>
@@ -1243,103 +1234,106 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1347,14 +1341,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421903F6-888C-9F46-8C01-565B04EEC870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9F43C5-5B82-F147-B60C-2DE4EB648686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23080" yWindow="3380" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="25100" yWindow="3680" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,46 +646,49 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
       <c r="R2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -699,22 +702,25 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>1</v>
       </c>
     </row>
@@ -724,21 +730,18 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
@@ -748,18 +751,15 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="T5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
     </row>
@@ -769,24 +769,30 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
     </row>
@@ -796,39 +802,30 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>1</v>
       </c>
     </row>
@@ -838,16 +835,10 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -859,27 +850,9 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>1</v>
       </c>
     </row>
@@ -889,9 +862,6 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
@@ -906,7 +876,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="K11">
         <v>1</v>
       </c>
     </row>
@@ -916,15 +886,9 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J12">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="U12">
         <v>1</v>
       </c>
     </row>
@@ -934,13 +898,10 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -949,13 +910,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -964,12 +919,18 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <v>1</v>
       </c>
     </row>
@@ -979,16 +940,19 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -997,73 +961,73 @@
         <v>1</v>
       </c>
       <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
       <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
+      <c r="U16">
         <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1071,23 +1035,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1095,95 +1056,101 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>1</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1192,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1201,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1209,146 +1176,179 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>3</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
         <v>1</v>
       </c>
       <c r="P32">
-        <v>2</v>
-      </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
       </c>
       <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <v>3</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
       <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="S33">
         <v>1</v>
       </c>
       <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9F43C5-5B82-F147-B60C-2DE4EB648686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF509C00-EC28-9044-8F7F-FD0B9AA7816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25100" yWindow="3680" windowWidth="32160" windowHeight="25420" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="23320" yWindow="3600" windowWidth="32160" windowHeight="25260" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,48 +646,54 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -697,31 +703,34 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -730,18 +739,27 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
     </row>
@@ -751,15 +769,21 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
     </row>
@@ -769,27 +793,27 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
@@ -802,12 +826,18 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
@@ -816,16 +846,22 @@
       <c r="J7">
         <v>1</v>
       </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
       <c r="L7">
         <v>1</v>
       </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
       <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
     </row>
@@ -837,10 +873,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
@@ -850,10 +886,25 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q9">
         <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -862,9 +913,30 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>1</v>
       </c>
     </row>
@@ -874,9 +946,21 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
     </row>
@@ -888,7 +972,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
@@ -898,10 +982,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -919,19 +1000,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -940,26 +1009,20 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <v>1</v>
       </c>
@@ -967,58 +1030,31 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
         <v>2</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1027,19 +1063,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1048,109 +1081,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1159,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1168,22 +1189,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1192,13 +1210,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1207,12 +1225,9 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
         <v>2</v>
       </c>
       <c r="H32">
@@ -1221,134 +1236,110 @@
       <c r="I32">
         <v>3</v>
       </c>
-      <c r="J32">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
         <v>3</v>
       </c>
-      <c r="K32">
-        <v>5</v>
-      </c>
-      <c r="L32">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
       <c r="H33">
         <v>1</v>
       </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
       <c r="J33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>2</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF509C00-EC28-9044-8F7F-FD0B9AA7816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A2A4A1-3BC2-3045-BA67-C4AA0A2AE006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23320" yWindow="3600" windowWidth="32160" windowHeight="25260" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="19040" yWindow="3540" windowWidth="32160" windowHeight="25260" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,49 +646,46 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -703,33 +700,42 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
         <v>2</v>
       </c>
     </row>
@@ -739,27 +745,21 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="N4">
         <v>1</v>
       </c>
     </row>
@@ -769,21 +769,15 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
@@ -793,31 +787,40 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -826,19 +829,19 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -846,9 +849,6 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
@@ -856,12 +856,9 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
         <v>1</v>
       </c>
     </row>
@@ -873,10 +870,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="L8">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>1</v>
       </c>
     </row>
@@ -886,25 +883,10 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>4</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -913,31 +895,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -946,21 +904,12 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
         <v>1</v>
       </c>
     </row>
@@ -972,7 +921,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
@@ -982,7 +931,10 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -991,7 +943,10 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1000,7 +955,10 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -1009,20 +967,20 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
         <v>1</v>
       </c>
@@ -1030,13 +988,19 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1045,16 +1009,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1063,124 +1033,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1197,86 +1200,101 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>4</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
         <v>3</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -1284,8 +1302,29 @@
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1296,11 +1335,11 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1308,38 +1347,44 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A2A4A1-3BC2-3045-BA67-C4AA0A2AE006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499E62F8-D1BD-B54B-953D-2B0465D19EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19040" yWindow="3540" windowWidth="32160" windowHeight="25260" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="23280" yWindow="3620" windowWidth="32160" windowHeight="25260" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,13 +563,13 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="7.33203125" customWidth="1"/>
+    <col min="3" max="22" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -646,51 +646,57 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
         <v>4</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
       <c r="R2">
         <v>1</v>
       </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
       <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>1</v>
       </c>
     </row>
@@ -700,43 +706,43 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -747,19 +753,19 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="N4">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>1</v>
       </c>
     </row>
@@ -769,15 +775,21 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
     </row>
@@ -787,40 +799,37 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="P6">
-        <v>2</v>
+      <c r="R6">
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -828,37 +837,19 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUM(C7:V7)</f>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
     </row>
@@ -868,12 +859,9 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
@@ -883,10 +871,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -895,7 +880,10 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -909,7 +897,7 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>1</v>
       </c>
     </row>
@@ -919,10 +907,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -931,10 +916,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -943,10 +925,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -955,9 +934,12 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
     </row>
@@ -967,49 +949,61 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="R16">
+      <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1017,71 +1011,65 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1090,88 +1078,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="E24">
         <v>2</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>1</v>
+      <c r="I24">
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1179,11 +1179,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1192,19 +1192,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1212,26 +1215,26 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1239,62 +1242,62 @@
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>2</v>
       </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
       <c r="P32">
         <v>3</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="S32">
+      <c r="R32">
         <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -1302,29 +1305,14 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="Q33">
-        <v>3</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-      <c r="S33">
-        <v>2</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1332,59 +1320,59 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E35">
         <v>1</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499E62F8-D1BD-B54B-953D-2B0465D19EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE34BF-D4C6-B84A-BCA7-80012AC86CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="3620" windowWidth="32160" windowHeight="25260" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="22600" yWindow="3780" windowWidth="32160" windowHeight="25260" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,57 +646,45 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
       <c r="L2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
+      <c r="Q2">
         <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="V2">
         <v>1</v>
       </c>
     </row>
@@ -706,42 +694,24 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>1</v>
       </c>
     </row>
@@ -751,21 +721,15 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="R4">
         <v>1</v>
       </c>
     </row>
@@ -775,21 +739,18 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="P5">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
     </row>
@@ -799,36 +760,12 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="T6">
         <v>1</v>
       </c>
     </row>
@@ -838,18 +775,27 @@
       </c>
       <c r="B7">
         <f>SUM(C7:V7)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
@@ -859,10 +805,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -871,7 +814,10 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -880,9 +826,15 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
         <v>1</v>
       </c>
     </row>
@@ -894,10 +846,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
     </row>
@@ -934,13 +886,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -949,23 +895,23 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
       <c r="J16">
         <v>1</v>
       </c>
@@ -976,22 +922,13 @@
         <v>2</v>
       </c>
       <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
         <v>1</v>
       </c>
       <c r="V16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -999,26 +936,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1030,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1048,46 +991,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="F22">
+        <v>2</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1095,95 +1044,86 @@
       <c r="E24">
         <v>2</v>
       </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1192,112 +1132,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>2</v>
       </c>
       <c r="P32">
-        <v>3</v>
-      </c>
-      <c r="R32">
         <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="I33">
+      <c r="G33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -1305,74 +1221,62 @@
       <c r="L33">
         <v>1</v>
       </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>207</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE34BF-D4C6-B84A-BCA7-80012AC86CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90420947-4B96-D649-8289-D98CEE4AC38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22600" yWindow="3780" windowWidth="32160" windowHeight="25260" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="19040" yWindow="4920" windowWidth="32160" windowHeight="23880" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,46 +646,55 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -694,24 +703,27 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="R3">
         <v>1</v>
       </c>
     </row>
@@ -721,15 +733,24 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
@@ -741,16 +762,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
     </row>
@@ -760,13 +778,28 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -775,27 +808,27 @@
       </c>
       <c r="B7">
         <f>SUM(C7:V7)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
     </row>
@@ -814,9 +847,15 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
     </row>
@@ -826,15 +865,18 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>1</v>
       </c>
     </row>
@@ -844,12 +886,9 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
     </row>
@@ -895,40 +934,40 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -936,53 +975,44 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -991,31 +1021,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1023,116 +1047,143 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1141,79 +1192,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="P32">
         <v>4</v>
       </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -1221,47 +1269,53 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1269,14 +1323,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>155</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90420947-4B96-D649-8289-D98CEE4AC38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6E9A1-C816-5541-A524-0AD1C549C665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19040" yWindow="4920" windowWidth="32160" windowHeight="23880" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="26080" yWindow="3420" windowWidth="32160" windowHeight="23880" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,55 +646,34 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>7</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -703,27 +682,24 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="R3">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
     </row>
@@ -733,24 +709,18 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
     </row>
@@ -760,15 +730,15 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
     </row>
@@ -778,28 +748,19 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -808,25 +769,19 @@
       </c>
       <c r="B7">
         <f>SUM(C7:V7)</f>
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -847,15 +802,9 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
@@ -865,19 +814,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -886,6 +823,9 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
       <c r="E11">
@@ -934,16 +874,22 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="G16">
         <v>2</v>
       </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -952,22 +898,13 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -975,11 +912,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -988,19 +925,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1008,11 +942,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1021,63 +955,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="O24">
+      <c r="N24">
         <v>1</v>
       </c>
       <c r="R24">
@@ -1092,8 +999,11 @@
       <c r="U24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1101,59 +1011,50 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C27">
         <v>7</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1161,29 +1062,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1192,46 +1087,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
       <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -1239,38 +1131,35 @@
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="P32">
-        <v>4</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
         <v>5</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1279,58 +1168,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>273</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6E9A1-C816-5541-A524-0AD1C549C665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E5EEA-C5EA-3844-8009-70E3A8053FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26080" yWindow="3420" windowWidth="32160" windowHeight="23880" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="20500" yWindow="5200" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,33 +646,42 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
     </row>
@@ -682,21 +691,30 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
       <c r="Q3">
@@ -709,19 +727,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -732,13 +738,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
@@ -748,9 +751,21 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
       <c r="L6">
@@ -769,21 +784,12 @@
       </c>
       <c r="B7">
         <f>SUM(C7:V7)</f>
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
@@ -793,7 +799,10 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -802,9 +811,15 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
     </row>
@@ -814,7 +829,16 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -823,12 +847,15 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
     </row>
@@ -838,7 +865,13 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -856,7 +889,16 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -865,7 +907,16 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -874,37 +925,37 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -916,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -925,16 +976,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -942,20 +996,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -964,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -973,103 +1030,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <f>SUM(C25:V25)</f>
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
       <c r="J27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1078,16 +1120,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1096,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1105,61 +1162,79 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
         <v>5</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1168,49 +1243,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E5EEA-C5EA-3844-8009-70E3A8053FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9214969-91FC-1146-A9A4-E7A1A60BE8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20500" yWindow="5200" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="22200" yWindow="3400" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,42 +646,51 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="K2">
-        <v>8</v>
-      </c>
       <c r="M2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -691,33 +700,33 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>1</v>
       </c>
     </row>
@@ -727,7 +736,16 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -736,12 +754,12 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
@@ -753,26 +771,17 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
+      <c r="H6">
+        <v>2</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -784,12 +793,15 @@
       </c>
       <c r="B7">
         <f>SUM(C7:V7)</f>
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
     </row>
@@ -801,7 +813,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
@@ -811,16 +823,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -831,13 +834,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
@@ -849,13 +855,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
     </row>
@@ -865,13 +871,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -880,7 +880,10 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -889,15 +892,12 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
@@ -907,16 +907,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -925,70 +916,76 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -996,32 +993,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1030,37 +1027,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f>SUM(C25:V25)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1068,41 +1113,35 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1111,40 +1150,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1153,139 +1186,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>4</v>
       </c>
-      <c r="F32">
-        <v>6</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
       <c r="J32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
         <v>5</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
       <c r="P32">
-        <v>2</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
       <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
         <v>3</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>184</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9214969-91FC-1146-A9A4-E7A1A60BE8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C906C8-DF0D-3248-B159-6293553ADB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="3400" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="22740" yWindow="5180" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,51 +646,45 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
     </row>
@@ -700,33 +694,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="S3">
         <v>1</v>
       </c>
     </row>
@@ -736,15 +712,24 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="N4">
-        <v>1</v>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>1</v>
       </c>
     </row>
@@ -754,12 +739,9 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
@@ -769,21 +751,21 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="P6">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
     </row>
@@ -793,15 +775,15 @@
       </c>
       <c r="B7">
         <f>SUM(C7:V7)</f>
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
@@ -811,9 +793,12 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>1</v>
       </c>
     </row>
@@ -823,7 +808,13 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -832,18 +823,24 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>1</v>
       </c>
     </row>
@@ -853,16 +850,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -882,7 +870,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q13">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
@@ -892,13 +880,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -907,7 +889,10 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -916,24 +901,27 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="O16">
         <v>2</v>
       </c>
     </row>
@@ -943,24 +931,27 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="H17">
-        <v>1</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
     </row>
@@ -970,10 +961,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -991,9 +979,15 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
         <v>1</v>
       </c>
     </row>
@@ -1012,10 +1006,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -1033,42 +1024,30 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-      <c r="R24">
         <v>1</v>
       </c>
     </row>
@@ -1078,30 +1057,15 @@
       </c>
       <c r="B25">
         <f>SUM(C25:V25)</f>
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
         <v>1</v>
       </c>
     </row>
@@ -1111,9 +1075,15 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>1</v>
       </c>
     </row>
@@ -1123,21 +1093,15 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="O27">
         <v>1</v>
       </c>
     </row>
@@ -1147,7 +1111,10 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -1156,15 +1123,12 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
         <v>1</v>
       </c>
     </row>
@@ -1174,7 +1138,22 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -1192,13 +1171,13 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1206,22 +1185,31 @@
       <c r="F32">
         <v>4</v>
       </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>5</v>
-      </c>
-      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="R32">
         <v>1</v>
       </c>
     </row>
@@ -1231,39 +1219,27 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
       </c>
       <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="T33">
         <v>1</v>
       </c>
       <c r="V33">
@@ -1276,9 +1252,12 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34">
         <v>1</v>
       </c>
     </row>
@@ -1290,10 +1269,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="V35">
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>1</v>
       </c>
     </row>
@@ -1303,10 +1282,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -1315,28 +1291,25 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="J37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C906C8-DF0D-3248-B159-6293553ADB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE80774-7C97-7B41-B159-4FD2A6646DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22740" yWindow="5180" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="19040" yWindow="5180" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,46 +646,61 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -694,15 +709,21 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="P3">
         <v>1</v>
       </c>
     </row>
@@ -712,9 +733,12 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="H4">
@@ -723,13 +747,7 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="R4">
+      <c r="Q4">
         <v>1</v>
       </c>
     </row>
@@ -739,9 +757,12 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
@@ -751,21 +772,27 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="N6">
+      <c r="L6">
         <v>1</v>
       </c>
     </row>
@@ -775,16 +802,16 @@
       </c>
       <c r="B7">
         <f>SUM(C7:V7)</f>
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+      <c r="L7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -793,12 +820,15 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
     </row>
@@ -808,12 +838,21 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
       <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
     </row>
@@ -823,24 +862,12 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
         <v>1</v>
       </c>
     </row>
@@ -850,7 +877,10 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -868,10 +898,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -880,7 +907,10 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -889,10 +919,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -901,16 +928,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -919,43 +937,22 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -964,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -973,25 +970,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1000,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1009,163 +997,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
       <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f>SUM(C25:V25)</f>
+        <v>12</v>
+      </c>
+      <c r="E25">
         <v>3</v>
       </c>
-      <c r="H25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1174,109 +1177,109 @@
         <v>29</v>
       </c>
       <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
         <v>3</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="L32">
         <v>4</v>
       </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
       <c r="M32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>1</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="H33">
+        <v>17</v>
+      </c>
+      <c r="D33">
         <v>3</v>
       </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
       <c r="K33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1285,31 +1288,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE80774-7C97-7B41-B159-4FD2A6646DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5726923C-BFFE-2D42-B7D2-97386A2CDE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19040" yWindow="5180" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="20400" yWindow="5840" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,61 +646,49 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>9</v>
       </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -709,21 +697,18 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>1</v>
       </c>
     </row>
@@ -733,21 +718,9 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
         <v>1</v>
       </c>
     </row>
@@ -759,10 +732,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
@@ -772,19 +745,22 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>2</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -794,6 +770,12 @@
       </c>
       <c r="L6">
         <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -802,15 +784,18 @@
       </c>
       <c r="B7">
         <f>SUM(C7:V7)</f>
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
     </row>
@@ -820,15 +805,12 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>1</v>
       </c>
     </row>
@@ -838,22 +820,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -862,12 +829,9 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
@@ -877,10 +841,13 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -889,7 +856,13 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -907,10 +880,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -919,7 +889,13 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -928,19 +904,25 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -948,11 +930,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -961,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -970,16 +952,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -988,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -997,145 +991,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25">
         <f>SUM(C25:V25)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="K27">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1144,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1153,142 +1150,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
       <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>4</v>
-      </c>
-      <c r="M32">
         <v>2</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="K33">
         <v>3</v>
       </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1297,10 +1312,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/app/master_data/excel/yamagata_covid.xlsx
+++ b/app/master_data/excel/yamagata_covid.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowaki/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5726923C-BFFE-2D42-B7D2-97386A2CDE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECB0417-C57C-7648-A5E1-2C7EA269E9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="5840" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
+    <workbookView xWindow="19040" yWindow="5280" windowWidth="32160" windowHeight="22640" xr2:uid="{4AE5BBB1-D65D-1E45-A13D-B3B1B0D874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,48 +646,66 @@
       </c>
       <c r="B2">
         <f>SUM(C2:V2)</f>
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
         <v>4</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="J2">
+      <c r="T2">
         <v>6</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>9</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1</v>
       </c>
     </row>
@@ -697,16 +715,64 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B37" si="0">SUM(C3:V3)</f>
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -718,10 +784,67 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -730,13 +853,67 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -745,36 +922,66 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>2</v>
       </c>
     </row>
@@ -784,19 +991,67 @@
       </c>
       <c r="B7">
         <f>SUM(C7:V7)</f>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -805,13 +1060,67 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -820,6 +1129,66 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>0</v>
       </c>
     </row>
@@ -829,10 +1198,67 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -841,13 +1267,67 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -856,13 +1336,67 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -871,6 +1405,66 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>0</v>
       </c>
     </row>
@@ -880,6 +1474,66 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>0</v>
       </c>
     </row>
@@ -889,13 +1543,67 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -904,22 +1612,67 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -928,7 +1681,64 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -940,6 +1750,66 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>0</v>
       </c>
     </row>
@@ -949,6 +1819,66 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
         <v>0</v>
       </c>
     </row>
@@ -958,19 +1888,67 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -979,6 +1957,66 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>0</v>
       </c>
     </row>
@@ -988,6 +2026,66 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>0</v>
       </c>
     </row>
@@ -997,7 +2095,67 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -1006,34 +2164,67 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -1042,22 +2233,67 @@
       </c>
       <c r="B25">
         <f>SUM(C25:V25)</f>
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -1066,10 +2302,10 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1078,13 +2314,55 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -1093,31 +2371,67 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -1126,10 +2440,67 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -1138,6 +2509,66 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>0</v>
       </c>
     </row>
@@ -1147,6 +2578,66 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
         <v>0</v>
       </c>
     </row>
@@ -1156,6 +2647,66 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>0</v>
       </c>
     </row>
@@ -1165,157 +2716,418 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
         <v>6</v>
       </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P32">
         <v>2</v>
       </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
       <c r="V32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
       <c r="K33">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>SUM(B2:B37)</f>
-        <v>192</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
